--- a/xlsx/result.xlsx
+++ b/xlsx/result.xlsx
@@ -4,9 +4,6 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <sheets>
     <sheet name="영화목록" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -396,82 +393,68 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>타이타닉</v>
+        <v>알라딘</v>
       </c>
       <c r="B2" t="str">
-        <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=18847</v>
+        <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=163788</v>
+      </c>
+      <c r="C2">
+        <v>9.38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>아바타</v>
+        <v>위대한 쇼맨</v>
       </c>
       <c r="B3" t="str">
-        <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=62266</v>
+        <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=106360</v>
+      </c>
+      <c r="C3">
+        <v>9.4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>매트릭스</v>
+      <c r="A4">
+        <v>1917</v>
       </c>
       <c r="B4" t="str">
-        <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=24452</v>
+        <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=187321</v>
+      </c>
+      <c r="C4">
+        <v>8.86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>반지의 제왕</v>
+        <v>어바웃 타임</v>
       </c>
       <c r="B5" t="str">
-        <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=31794</v>
+        <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=92075</v>
+      </c>
+      <c r="C5">
+        <v>9.18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>어벤져스</v>
+        <v>비긴어게인</v>
       </c>
       <c r="B6" t="str">
-        <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=72363</v>
+        <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=96379</v>
+      </c>
+      <c r="C6">
+        <v>9.03</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>겨울왕국</v>
+        <v>라라랜드</v>
       </c>
       <c r="B7" t="str">
-        <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=100931</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>트랜스포머</v>
-      </c>
-      <c r="B8" t="str">
-        <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=61521</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>해리포터</v>
-      </c>
-      <c r="B9" t="str">
-        <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=30688</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>다크나이트</v>
-      </c>
-      <c r="B10" t="str">
-        <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=62586</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>캐리비안의 해적</v>
-      </c>
-      <c r="B11" t="str">
-        <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=37148</v>
+        <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=134963</v>
+      </c>
+      <c r="C7">
+        <v>8.6</v>
       </c>
     </row>
   </sheetData>
@@ -482,62 +465,10 @@
     <hyperlink ref="B5" r:id="rId4"/>
     <hyperlink ref="B6" r:id="rId5"/>
     <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:C11"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>s</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
-  </ignoredErrors>
-</worksheet>
 </file>